--- a/Work log.xlsx
+++ b/Work log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonah\Documents\Unreal Projects\Music-Tower-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1958D4BC-C2A6-4A71-8136-5EC666BD58B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E354A-63A8-4C3E-91B1-0B70C0627FB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Made Base Classes for Grid, grid blocks, and towers. Added basic pulse visual to start tower</t>
+  </si>
+  <si>
+    <t>Got started on implementing procedural midi plugin</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,6 +402,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.1875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Work log.xlsx
+++ b/Work log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonah\Documents\Unreal Projects\Music-Tower-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E354A-63A8-4C3E-91B1-0B70C0627FB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC0492-CE6E-44A0-B6C4-63957AF76F19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Got started on implementing procedural midi plugin</t>
+  </si>
+  <si>
+    <t>Finished putting in procedural midi plugin, looked into in-engine synthesis, recorded a basic scale and drum beats</t>
+  </si>
+  <si>
+    <t>Changed system for spawning grid tiles from editor, made it so that default towers can be spawned from grid tiles in editor</t>
   </si>
 </sst>
 </file>
@@ -362,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +429,26 @@
       <c r="B4" s="2">
         <v>0.1875</v>
       </c>
+      <c r="C4" s="2">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
